--- a/public/variables.xlsx
+++ b/public/variables.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcima/jammint2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6696C7C2-747E-5046-9046-F4784E96876F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2253648-54E7-F849-B65C-2AE028AFEFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="460" windowWidth="10000" windowHeight="14900" xr2:uid="{D71BB25B-250C-A947-AEFB-68097766AC56}"/>
+    <workbookView xWindow="380" yWindow="580" windowWidth="10000" windowHeight="14900" activeTab="1" xr2:uid="{D71BB25B-250C-A947-AEFB-68097766AC56}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jam" sheetId="1" r:id="rId1"/>
+    <sheet name="JamType" sheetId="2" r:id="rId2"/>
+    <sheet name="messages" sheetId="3" r:id="rId3"/>
+    <sheet name="sections" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,42 +28,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>jams</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Jams</t>
-  </si>
-  <si>
-    <t>jammer</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>exjammer</t>
-  </si>
-  <si>
-    <t>staff</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+  <si>
+    <t>adminId</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>jamCode</t>
+  </si>
+  <si>
+    <t>jamDesc</t>
+  </si>
+  <si>
+    <t>JamName</t>
+  </si>
+  <si>
+    <t>JamType</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>MySpace</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>jammers</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>JamInfo</t>
+  </si>
+  <si>
+    <t>jamId</t>
+  </si>
+  <si>
+    <t>messageId</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>content:</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>mySpace</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>offers</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>accommodation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -75,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,13 +173,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -406,72 +522,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1595775-F205-3E46-9DC2-3614D6519C12}">
-  <dimension ref="B4:F9"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AE17FD-B1E4-D145-AC95-5D5416C08A3A}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C54A10-BEC7-C147-8E02-8DD6B7CFDE20}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B98B22-B1C7-BB44-AACA-4DEAD8CBD4C0}">
+  <dimension ref="B3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>